--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -547,8 +547,8 @@
   </sheetPr>
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,7 +637,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="XFD6" s="0"/>
+      <c r="XFD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
@@ -677,7 +677,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="XFD9" s="0"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
@@ -766,7 +766,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="XFD15" s="0"/>
+      <c r="XFD15" s="1"/>
     </row>
     <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
@@ -789,7 +789,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="XFD16" s="0"/>
+      <c r="XFD16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
@@ -1096,77 +1096,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-    </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
@@ -1263,14 +1235,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
-    </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>65</v>
@@ -1289,13 +1253,10 @@
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1303,13 +1264,10 @@
       <c r="B66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1347,7 +1305,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B8 B64:B1048576 B10:B62">
+  <conditionalFormatting sqref="B1:B8 B64:B1048576 B31:B62 B10:B29">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -1369,9 +1327,25 @@
       <formula>NOT(ISERROR(SEARCH("wip",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B1048576 B1:B62">
+  <conditionalFormatting sqref="B64:B1048576 B31:B62 B1:B29">
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("ok",B30)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="wip" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("wip",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("not started",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -139,27 +139,24 @@
     <t xml:space="preserve">nom</t>
   </si>
   <si>
-    <t xml:space="preserve">salaire_journalier</t>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Statut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Colis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poids_kg</t>
   </si>
   <si>
     <t xml:space="preserve">decimal</t>
   </si>
   <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Statut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table Colis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poids_kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">destinataire</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
     <t xml:space="preserve">livreur_id</t>
   </si>
   <si>
+    <t xml:space="preserve">cout_vehicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salaire_livreur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Table Livraison</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">prix_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cout_vehicule</t>
   </si>
   <si>
     <t xml:space="preserve">statut_id</t>
@@ -547,8 +547,8 @@
   </sheetPr>
   <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="1" sqref="G57 H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -971,67 +971,67 @@
         <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="1" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="1" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1039,7 @@
         <v>43</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,37 +1047,37 @@
         <v>45</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>35</v>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,34 +1085,37 @@
         <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="1" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>33</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>53</v>
@@ -1130,44 +1133,38 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>33</v>
@@ -1175,7 +1172,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>57</v>
@@ -1185,11 +1182,14 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,15 +1205,15 @@
         <v>60</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,12 +1221,12 @@
         <v>63</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>64</v>
@@ -1254,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>4</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>4</v>
@@ -1298,14 +1298,14 @@
         <v>13</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B8 B64:B1048576 B31:B62 B10:B29">
+  <conditionalFormatting sqref="B1:B8 B64:B1048576 B10:B62">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -1327,25 +1327,9 @@
       <formula>NOT(ISERROR(SEARCH("wip",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B1048576 B31:B62 B1:B29">
+  <conditionalFormatting sqref="B64:B1048576 B1:B62">
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("ok",B30)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="wip" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("wip",B30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
-      <formula>NOT(ISERROR(SEARCH("not started",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="96">
   <si>
     <t xml:space="preserve">TO DO LIST EXAMEN S3 – 16 décembre 2025 (PART I)</t>
   </si>
@@ -160,18 +160,15 @@
     <t xml:space="preserve">AdrDestination varchar</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table affectation</t>
+  </si>
+  <si>
     <t xml:space="preserve">(FK)</t>
   </si>
   <si>
-    <t xml:space="preserve">IdZone int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table affectation</t>
-  </si>
-  <si>
     <t xml:space="preserve">IdVehicule int</t>
   </si>
   <si>
@@ -272,6 +269,21 @@
   </si>
   <si>
     <t xml:space="preserve">On insert into Livraison : insert into LivraisonStatut (en attente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vérifier que le colis est encore bien disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vérifier les paramètres montants (coût véhicule et prix du kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Affectation livreur et véhicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- création de la nouvelle livraison</t>
   </si>
   <si>
     <t xml:space="preserve">Gestion statut livraison</t>
@@ -620,10 +632,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L133" activeCellId="0" sqref="L133"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O111" activeCellId="0" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,7 +665,6 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="0"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +674,6 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="0"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1142,7 +1152,6 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0"/>
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1157,85 +1166,82 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="1" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="1" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1250,71 +1256,71 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="1" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F68" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="1" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F73" s="1" t="s">
         <v>65</v>
       </c>
@@ -1324,334 +1330,328 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="1" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>68</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="D84" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="D97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="2" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F100" s="0"/>
+      <c r="F100" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="1" t="s">
-        <v>25</v>
+      <c r="E108" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="1" t="s">
-        <v>76</v>
+      <c r="F112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="1" t="s">
-        <v>77</v>
+      <c r="F114" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+      <c r="D118" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F120" s="0"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="1" t="s">
-        <v>21</v>
+      <c r="D123" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="1" t="s">
-        <v>25</v>
+      <c r="E124" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="1" t="s">
-        <v>85</v>
+      <c r="F126" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G128" s="1" t="s">
-        <v>87</v>
+      <c r="F128" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="1" t="s">
-        <v>88</v>
+      <c r="F129" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G133" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="1" t="s">
+      <c r="G134" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="1" t="s">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C8 C10:C75 C77:C1048576 C1 B2:B3">
+  <conditionalFormatting sqref="C4:C8 C10:C74 C76:C1048576 C1 B2:B3">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -1673,7 +1673,7 @@
       <formula>NOT(ISERROR(SEARCH("wip",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C75 C77:C1048576 C1 B2:B3">
+  <conditionalFormatting sqref="C4:C74 C76:C1048576 C1 B2:B3">
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -622,16 +622,16 @@
   </sheetPr>
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L133" activeCellId="0" sqref="L133"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K127" activeCellId="0" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.77"/>
@@ -653,7 +653,6 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="0"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +662,6 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="0"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1142,7 +1140,6 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0"/>
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1420,43 +1417,21 @@
       <c r="D85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
@@ -1476,13 +1451,11 @@
       <c r="D99" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="1" t="s">
@@ -1567,13 +1540,11 @@
       <c r="D119" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="1" t="s">
@@ -1682,8 +1653,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -634,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O111" activeCellId="0" sqref="O111"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L132" activeCellId="0" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
   <si>
     <t xml:space="preserve">TO DO LIST EXAMEN S3 – 16 décembre 2025 (PART I)</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">Zones</t>
   </si>
   <si>
+    <t xml:space="preserve">(utilisation à prévoir)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colis</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
     <t xml:space="preserve">4.</t>
   </si>
   <si>
-    <t xml:space="preserve">wip</t>
-  </si>
-  <si>
     <t xml:space="preserve">Données de test</t>
   </si>
   <si>
@@ -241,9 +241,6 @@
     <t xml:space="preserve">5.</t>
   </si>
   <si>
-    <t xml:space="preserve">not started</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accueil</t>
   </si>
   <si>
@@ -253,6 +250,12 @@
     <t xml:space="preserve">Design</t>
   </si>
   <si>
+    <t xml:space="preserve">Landing Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fonctions</t>
   </si>
   <si>
@@ -268,34 +271,184 @@
     <t xml:space="preserve">Affectation</t>
   </si>
   <si>
+    <t xml:space="preserve">Views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colis disponibles : idColis not in Livraison</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trigger</t>
   </si>
   <si>
     <t xml:space="preserve">On insert into Livraison : insert into LivraisonStatut (en attente)</t>
   </si>
   <si>
+    <t xml:space="preserve">Procédure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que le colis est encore disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier les paramètres entrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction : insert into affectation → insert into livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire de création :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloc affectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix du chauffeur : liste déroulante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix du véhicule : liste déroulante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloc colis : tableau de sélection de colis disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloc bénéfice : coût véhicule, livreur, prix par kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">créer(idVehicule, idLivreur, coutVehicule, coutLivreur, idColis, prixKg, dateLivraison) → appel de la procédure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LivraisonController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage du formulaire : chargement des données (liste véhicules, chauffeur, colis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistrement : fonction créer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gestion statut livraison</t>
   </si>
   <si>
-    <t xml:space="preserve">Procédure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcheverLivraison (idLivraison)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Vérifier que la livraison est en cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Récupérer les informations de la livraison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Transaction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Insert into Paiements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- change LivraisonStatut (livré)</t>
+    <t xml:space="preserve">Statut actuel des livraisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmer livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Récupérer le statut actuel de la livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vérifier que la livraison est bien en attente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vérifier les informations du colis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Récupérer les informations de paiement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Transaction : insert into Paiements → update status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des colis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut de la livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si en attente → Confirmer ou Supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achever livraison → appel de la procedure Confirmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuler livraison → appel de la procedure Annuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatutController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefices par période</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefices par mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefices par annee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire de filtre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mois (1 – 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jour (1 – 31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau résultat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligne total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBeneficesParPeriode → utilise les views selon la sélection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculerTotaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeneficeController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefices détaillés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bénéfices détaillés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloc récapitulatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total livraisons livrés ou annulés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiffre d’affaires total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coûts totaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bénéfice Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge en %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau détaillé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBeneficesDetailles</t>
   </si>
 </sst>
 </file>
@@ -377,7 +530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,6 +544,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,10 +777,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K127" activeCellId="0" sqref="K127"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B202" activeCellId="0" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -853,7 +1010,9 @@
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -871,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -889,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -907,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -918,11 +1077,14 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -943,13 +1105,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -963,26 +1125,26 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,7 +1165,7 @@
       <c r="A27" s="2"/>
       <c r="C27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1012,16 +1174,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1031,7 +1193,7 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1041,7 +1203,7 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1053,285 +1215,288 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>70</v>
@@ -1343,35 +1508,35 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>71</v>
@@ -1379,24 +1544,24 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,10 +1569,10 @@
         <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -1415,214 +1580,725 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="1" t="s">
-        <v>78</v>
+      <c r="E94" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="F98" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="1" t="s">
-        <v>75</v>
+      <c r="F99" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="1" t="s">
-        <v>80</v>
+      <c r="F100" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="1" t="s">
-        <v>22</v>
+      <c r="E103" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F104" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="1" t="s">
-        <v>23</v>
+      <c r="E105" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F106" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="1" t="s">
-        <v>21</v>
+      <c r="E107" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F108" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="1" t="s">
-        <v>82</v>
+      <c r="G109" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="1" t="s">
-        <v>76</v>
+      <c r="G110" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G111" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="1" t="s">
-        <v>77</v>
+      <c r="B114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="1" t="s">
+      <c r="F116" s="0"/>
+      <c r="G116" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="0"/>
+      <c r="G117" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="0"/>
+      <c r="G118" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="1" t="s">
-        <v>25</v>
+      <c r="B123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="1" t="s">
-        <v>26</v>
+      <c r="D125" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E126" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G128" s="1" t="s">
+      <c r="F128" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="1" t="s">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G143" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G144" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G145" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G146" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154" s="1" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D162" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F172" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D180" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F190" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F192" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F193" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F194" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C8 C10:C75 C77:C1048576 C1 B2:B3">
+  <conditionalFormatting sqref="C4:C8 C10:C75 C1 B2:B3 C77:C1048576">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -1644,7 +2320,7 @@
       <formula>NOT(ISERROR(SEARCH("wip",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C75 C77:C1048576 C1 B2:B3">
+  <conditionalFormatting sqref="C4:C75 C1 B2:B3 C77:C1048576">
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>
@@ -1653,8 +2329,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -313,10 +313,10 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Bloc bénéfice : coût véhicule, livreur, prix par kg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bloc colis : tableau de sélection de colis disponibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloc bénéfice : coût véhicule, livreur, prix par kg</t>
   </si>
   <si>
     <t xml:space="preserve">créer(idVehicule, idLivreur, coutVehicule, coutLivreur, idColis, prixKg, dateLivraison) → appel de la procédure</t>
@@ -530,7 +530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,10 +544,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B202" activeCellId="0" sqref="B202"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1769,32 +1765,32 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="0"/>
       <c r="G116" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="0"/>
       <c r="G117" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="0"/>
       <c r="G118" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="0" t="s">
+      <c r="F120" s="1" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="1" t="s">
@@ -2171,6 +2167,23 @@
         <v>131</v>
       </c>
     </row>
+    <row r="182" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="0"/>
+      <c r="J182" s="0"/>
+      <c r="K182" s="0"/>
+      <c r="L182" s="0"/>
+      <c r="M182" s="0"/>
+      <c r="N182" s="0"/>
+      <c r="O182" s="0"/>
+    </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>132</v>
@@ -2185,7 +2198,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2196,6 +2209,13 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="1" t="s">

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Partie 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Partie 2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
   <si>
     <t xml:space="preserve">TO DO LIST EXAMEN S3 – 16 décembre 2025 (PART I)</t>
   </si>
@@ -449,6 +450,51 @@
   </si>
   <si>
     <t xml:space="preserve">getBeneficesDetailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO DO LIST EXAMEN S3 – 19 décembre 2025 (PART II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion des données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table véhicule : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table livreur : 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 à 15000Ar/livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 à 18000Ar/livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 à 20000Ar/livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout colonne pourcentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 zones à 12,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 zones à 0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaire livreur maintenant dans Table livreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouveau bloc : zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout de la zone pour ajuster le calcul</t>
   </si>
 </sst>
 </file>
@@ -775,7 +821,7 @@
   </sheetPr>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
     </sheetView>
   </sheetViews>
@@ -940,51 +986,62 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="0"/>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+      <c r="O14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -993,23 +1050,19 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1584,16 +1637,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
+      <c r="K87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
@@ -1789,9 +1854,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="0"/>
-    </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="1" t="s">
         <v>78</v>
@@ -2167,22 +2229,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="182" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="0"/>
-      <c r="J182" s="0"/>
-      <c r="K182" s="0"/>
-      <c r="L182" s="0"/>
-      <c r="M182" s="0"/>
-      <c r="N182" s="0"/>
-      <c r="O182" s="0"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
@@ -2353,4 +2407,400 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C1048576 C1 B2:B3">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="wip" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("wip",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C1048576 C1 B2:B3">
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="166">
   <si>
     <t xml:space="preserve">TO DO LIST EXAMEN S3 – 16 décembre 2025 (PART I)</t>
   </si>
@@ -299,6 +299,9 @@
     <t xml:space="preserve">Transaction : insert into affectation → insert into livraison</t>
   </si>
   <si>
+    <t xml:space="preserve">edit : trigger et procédure non supporté par le serveur mySQL → Conversion en suite de requêtes dans le controlleur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Formulaire de création :</t>
   </si>
   <si>
@@ -485,16 +488,37 @@
     <t xml:space="preserve">2 zones à 0 %</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion livraison</t>
+    <t xml:space="preserve">Gestion livraison (création)</t>
   </si>
   <si>
     <t xml:space="preserve">Salaire livreur maintenant dans Table livreur</t>
   </si>
   <si>
+    <t xml:space="preserve">On garde coutLivreur dans affectation au cas où le salaire dans la table livreur change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre pourcentageZone dans affectation pour le même cas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nouveau bloc : zones</t>
   </si>
   <si>
-    <t xml:space="preserve">ajout de la zone pour ajuster le calcul</t>
+    <t xml:space="preserve">ajout de la zone dans la fonction de calcul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table zone utilisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux fichiers de vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire d’ajout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste</t>
   </si>
 </sst>
 </file>
@@ -504,7 +528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,6 +556,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,7 +605,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -590,6 +619,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,10 +852,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H150" activeCellId="2" sqref="E44 P27 H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,13 +1034,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="0"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
@@ -1024,13 +1057,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="0"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
@@ -1602,16 +1635,28 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
@@ -1637,28 +1682,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="0"/>
-      <c r="J87" s="0"/>
-      <c r="K87" s="0"/>
-      <c r="L87" s="0"/>
-      <c r="M87" s="0"/>
-      <c r="N87" s="0"/>
-      <c r="O87" s="0"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
@@ -1808,29 +1848,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="1" t="s">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="s">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1845,7 +1891,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1854,40 +1900,40 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="1" t="s">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="s">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1896,89 +1942,89 @@
         <v>102</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="1" t="s">
+      <c r="C131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="1" t="s">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F134" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F135" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F136" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F137" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="1" t="s">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="s">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="1" t="s">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2002,124 +2048,121 @@
         <v>110</v>
       </c>
     </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G147" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="1" t="s">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F152" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F153" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="1" t="s">
+      <c r="F154" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1" t="s">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1" t="s">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+      <c r="C161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="2" t="s">
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="1" t="s">
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D164" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="1" t="s">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,245 +2173,267 @@
         <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D168" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D170" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="1" t="s">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F172" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="1" t="s">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D178" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="1" t="s">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D182" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="1" t="s">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+      <c r="C183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="2" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3" t="s">
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="1" t="s">
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="1" t="s">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D190" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="1" t="s">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="1" t="s">
+      <c r="C191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F192" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F193" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F194" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F195" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="1" t="s">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F196" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D197" s="1" t="s">
+      <c r="C197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="1" t="s">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D200" s="1" t="s">
+      <c r="C200" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="1" t="s">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>131</v>
+      <c r="C203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2479,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P27" activeCellId="1" sqref="E44 P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2434,7 +2499,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2557,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2572,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2580,14 +2645,8 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2595,14 +2654,8 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2613,14 +2666,8 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
@@ -2635,7 +2682,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2646,8 +2693,14 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2658,8 +2711,14 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2670,8 +2729,14 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2698,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2716,70 +2781,166 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="1" t="s">
-        <v>102</v>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C1048576 C1 B2:B3">
+  <conditionalFormatting sqref="C1 B2:B3 C4:C1048576">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -2789,8 +2950,6 @@
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="wip" dxfId="2">
       <formula>NOT(ISERROR(SEARCH("wip",B1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C1048576 C1 B2:B3">
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>
